--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_P2_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>885.4081981698273</v>
+        <v>2089.625192807319</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.87819816981671</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.542561501688547</v>
+        <v>13.72575171901394</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.542561501688547</v>
+        <v>7.805446816166261</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>685.4400000000107</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.0900000000001</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>17.89020001293848</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>15.50084538957422</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.65075183719856</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.23760250281424</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.66154480832267</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.96965243877682</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1023,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1037,15 +1059,253 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>135.9800000000007</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4300000000007</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>148.2900000000007</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>153.45</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>147.0200000000007</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000073</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000073</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>114.5800000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>120.9900000000004</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>122.6550000000004</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>118.7050000000004</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.9450000000004</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>135.9800000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>143.4300000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>148.2900000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>153.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>147.0200000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000001</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5050000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>114.5800000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>120.9900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>122.6550000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>118.7050000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>114.9450000000004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>35.98000000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>43.43000000000072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>48.29000000000073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>53.44999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>47.02000000000072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.995000000000083</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510000000000066</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.665000000000081</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.505000000000077</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12">
@@ -1734,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>14.58000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>20.99000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1756,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>22.65500000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>18.70500000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1778,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>14.94500000000043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1990,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2045,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2056,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2067,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2089,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,10 +2434,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2188,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2199,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2210,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2221,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2229,10 +2489,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2240,10 +2500,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2251,10 +2511,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2262,10 +2522,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2273,12 +2533,78 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
